--- a/数据整理/stocks/A股/深证主板/002396-星网锐捷.xlsx
+++ b/数据整理/stocks/A股/深证主板/002396-星网锐捷.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,13 +1471,331 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>4.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002396-星网锐捷.xlsx
+++ b/数据整理/stocks/A股/深证主板/002396-星网锐捷.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1742,7 +1743,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,17 +1754,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1773,14 +1794,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.31</v>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1789,13 +1832,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>24</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>4.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002396-星网锐捷.xlsx
+++ b/数据整理/stocks/A股/深证主板/002396-星网锐捷.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.19</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.31</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>24</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>4.69</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014344</t>
+          <t>016935</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华中证500指数增强A</t>
+          <t>景顺长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0680</t>
+          <t>0.3285</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -664,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>008851</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>64.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0406</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -702,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014345</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证500指数增强C</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -740,32 +757,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -778,36 +795,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>景顺长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -816,6 +831,290 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1137,7 +1436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002396-星网锐捷.xlsx
+++ b/数据整理/stocks/A股/深证主板/002396-星网锐捷.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.69</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>016935</t>
+          <t>009917</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强C</t>
+          <t>格林泓利增强债券C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.57</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>24.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3285</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -643,186 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000978</t>
+          <t>009916</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城量化精选股票</t>
+          <t>格林泓利增强债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>24.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.0113</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008851</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>64.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0406</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010307</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.91</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010308</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>84.91</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -887,36 +754,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>014344</t>
+          <t>016935</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华中证500指数增强A</t>
+          <t>景顺长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>15.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0680</t>
+          <t>0.3285</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -925,36 +792,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -963,36 +830,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>008851</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>64.77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0288</t>
+          <t>0.0406</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1001,36 +868,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014345</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华中证500指数增强C</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.13</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0093</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1039,32 +906,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>84.91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0140</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1077,36 +944,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>景顺长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1115,6 +980,290 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1436,7 +1585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
